--- a/Modelling neuromusculoskeletal deficits/Clinical Exam/CE_BCN_CP2.xlsx
+++ b/Modelling neuromusculoskeletal deficits/Clinical Exam/CE_BCN_CP2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0167909\Documents\Workshop BCN\CP16 - CP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{BE6CB456-2784-4EAC-B587-574666D80F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D396A75B-8597-4BA6-8858-AD186B549096}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{BE6CB456-2784-4EAC-B587-574666D80F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B10BD1B-DD39-465C-92D1-AF7397C2B8C7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -272,9 +272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -561,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -840,7 +837,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -887,7 +884,7 @@
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>0</v>
       </c>
     </row>
@@ -895,7 +892,7 @@
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -903,7 +900,7 @@
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -911,7 +908,7 @@
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -919,7 +916,7 @@
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -927,7 +924,7 @@
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -935,7 +932,7 @@
       <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -943,7 +940,7 @@
       <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -951,7 +948,7 @@
       <c r="A50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -959,7 +956,7 @@
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -967,7 +964,7 @@
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -975,7 +972,7 @@
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -983,7 +980,7 @@
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>56</v>
       </c>
     </row>
